--- a/LegacySystem/src/main/resources/excel/calendar.xlsx
+++ b/LegacySystem/src/main/resources/excel/calendar.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="24040" windowHeight="13120"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="199" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79">
   <si>
     <t>资源</t>
   </si>
@@ -233,6 +233,24 @@
   </si>
   <si>
     <t>line43</t>
+  </si>
+  <si>
+    <t>移印机</t>
+  </si>
+  <si>
+    <t>星期一-星期日</t>
+  </si>
+  <si>
+    <t>高电压测试机</t>
+  </si>
+  <si>
+    <t>弹片机</t>
+  </si>
+  <si>
+    <t>自动包装机</t>
+  </si>
+  <si>
+    <t>电阻测试机</t>
   </si>
 </sst>
 </file>
@@ -240,12 +258,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -263,6 +281,110 @@
       <sz val="10"/>
       <name val="微软雅黑"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <b/>
@@ -273,6 +395,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -289,125 +425,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -418,187 +441,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -627,17 +650,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -651,26 +668,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -690,11 +694,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -716,11 +726,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF7F7F7F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,152 +752,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -883,58 +906,61 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1201,17 +1227,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
-  <dimension ref="A1:D66"/>
+  <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:D66"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A32" sqref="A32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="3"/>
+  <cols>
+    <col min="1" max="1" width="15.3303571428571" customWidth="1"/>
+    <col min="2" max="2" width="13.9910714285714" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:4">
+    <row r="1" ht="28" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1225,7 +1255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="30" spans="1:4">
+    <row r="2" ht="28" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1237,7 +1267,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="30" spans="1:4">
+    <row r="3" ht="28" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1249,7 +1279,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" ht="30" spans="1:4">
+    <row r="4" ht="28" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1261,7 +1291,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="30" spans="1:4">
+    <row r="5" ht="28" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1273,7 +1303,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" ht="30" spans="1:4">
+    <row r="6" ht="28" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1285,7 +1315,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="30" spans="1:4">
+    <row r="7" ht="28" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1297,7 +1327,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" ht="30" spans="1:4">
+    <row r="8" ht="28" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1309,7 +1339,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" ht="30" spans="1:4">
+    <row r="9" ht="28" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +1351,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" ht="30" spans="1:4">
+    <row r="10" ht="28" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1333,7 +1363,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="30" spans="1:4">
+    <row r="11" ht="28" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1345,7 +1375,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="30" spans="1:4">
+    <row r="12" ht="28" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1387,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="30" spans="1:4">
+    <row r="13" ht="28" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1369,7 +1399,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="30" spans="1:4">
+    <row r="14" ht="28" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1381,7 +1411,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="30" spans="1:4">
+    <row r="15" ht="28" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1393,7 +1423,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="30" spans="1:4">
+    <row r="16" ht="28" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1405,7 +1435,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="30" spans="1:4">
+    <row r="17" ht="28" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1417,7 +1447,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="30" spans="1:4">
+    <row r="18" ht="28" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1429,7 +1459,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="30" spans="1:4">
+    <row r="19" ht="28" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1441,7 +1471,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="30" spans="1:4">
+    <row r="20" ht="28" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1453,7 +1483,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="30" spans="1:4">
+    <row r="21" ht="28" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1465,7 +1495,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="30" spans="1:4">
+    <row r="22" ht="28" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1477,7 +1507,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="30" spans="1:4">
+    <row r="23" ht="28" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1489,7 +1519,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="30" spans="1:4">
+    <row r="24" ht="28" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1501,7 +1531,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="30" spans="1:4">
+    <row r="25" ht="28" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1513,7 +1543,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="30" spans="1:4">
+    <row r="26" ht="28" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1525,7 +1555,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="30" spans="1:4">
+    <row r="27" ht="28" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1537,7 +1567,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="30" spans="1:4">
+    <row r="28" ht="28" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1549,7 +1579,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="30" spans="1:4">
+    <row r="29" ht="28" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1561,7 +1591,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="30" spans="1:4">
+    <row r="30" ht="28" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1573,7 +1603,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="30" spans="1:4">
+    <row r="31" ht="28" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1585,7 +1615,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="30" spans="1:4">
+    <row r="32" ht="28" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1597,7 +1627,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="30" spans="1:4">
+    <row r="33" ht="28" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -1609,7 +1639,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="30" spans="1:4">
+    <row r="34" ht="28" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1621,7 +1651,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="45" spans="1:4">
+    <row r="35" ht="28" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1633,7 +1663,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" ht="30" spans="1:4">
+    <row r="36" ht="28" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1645,7 +1675,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" ht="30" spans="1:4">
+    <row r="37" ht="28" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -1657,7 +1687,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" ht="30" spans="1:4">
+    <row r="38" ht="28" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1669,7 +1699,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" ht="30" spans="1:4">
+    <row r="39" ht="28" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -1681,7 +1711,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" ht="30" spans="1:4">
+    <row r="40" ht="28" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -1693,7 +1723,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" ht="30" spans="1:4">
+    <row r="41" ht="28" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1705,7 +1735,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" ht="30" spans="1:4">
+    <row r="42" ht="28" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -1717,7 +1747,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" ht="30" spans="1:4">
+    <row r="43" ht="28" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -1729,7 +1759,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" ht="30" spans="1:4">
+    <row r="44" ht="28" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1741,7 +1771,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" ht="30" spans="1:4">
+    <row r="45" ht="28" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -1753,7 +1783,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" ht="30" spans="1:4">
+    <row r="46" ht="28" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -1765,7 +1795,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" ht="30" spans="1:4">
+    <row r="47" ht="28" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -1777,7 +1807,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" ht="30" spans="1:4">
+    <row r="48" ht="28" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -1789,7 +1819,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" ht="30" spans="1:4">
+    <row r="49" ht="28" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -1801,7 +1831,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" ht="30" spans="1:4">
+    <row r="50" ht="28" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
@@ -1813,7 +1843,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" ht="30" spans="1:4">
+    <row r="51" ht="28" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
@@ -1825,7 +1855,7 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" ht="30" spans="1:4">
+    <row r="52" ht="28" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
@@ -1837,7 +1867,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" ht="30" spans="1:4">
+    <row r="53" ht="28" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
@@ -1849,7 +1879,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" ht="30" spans="1:4">
+    <row r="54" ht="28" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
@@ -1861,7 +1891,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" ht="30" spans="1:4">
+    <row r="55" ht="28" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
@@ -1873,7 +1903,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" ht="30" spans="1:4">
+    <row r="56" ht="28" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
@@ -1885,7 +1915,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" ht="30" spans="1:4">
+    <row r="57" ht="28" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
@@ -1897,7 +1927,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" ht="30" spans="1:4">
+    <row r="58" ht="28" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -1909,7 +1939,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" ht="30" spans="1:4">
+    <row r="59" ht="28" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
@@ -1921,7 +1951,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" ht="30" spans="1:4">
+    <row r="60" ht="28" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
@@ -1933,7 +1963,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" ht="30" spans="1:4">
+    <row r="61" ht="28" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
@@ -1945,7 +1975,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" ht="30" spans="1:4">
+    <row r="62" ht="28" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -1957,7 +1987,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" ht="30" spans="1:4">
+    <row r="63" ht="28" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -1969,7 +1999,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" ht="30" spans="1:4">
+    <row r="64" ht="28" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -1981,7 +2011,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" ht="30" spans="1:4">
+    <row r="65" ht="28" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>
@@ -1993,7 +2023,7 @@
       </c>
       <c r="D65" s="2"/>
     </row>
-    <row r="66" ht="30" spans="1:4">
+    <row r="66" ht="14" spans="1:4">
       <c r="A66" s="2" t="s">
         <v>72</v>
       </c>
@@ -2004,6 +2034,66 @@
         <v>42</v>
       </c>
       <c r="D66" s="2"/>
+    </row>
+    <row r="67" ht="14" spans="1:4">
+      <c r="A67" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D67" s="2"/>
+    </row>
+    <row r="68" ht="14" spans="1:4">
+      <c r="A68" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D68" s="2"/>
+    </row>
+    <row r="69" ht="14" spans="1:4">
+      <c r="A69" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D69" s="2"/>
+    </row>
+    <row r="70" ht="14" spans="1:4">
+      <c r="A70" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D70" s="2"/>
+    </row>
+    <row r="71" ht="14" spans="1:4">
+      <c r="A71" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D71" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/LegacySystem/src/main/resources/excel/calendar.xlsx
+++ b/LegacySystem/src/main/resources/excel/calendar.xlsx
@@ -136,7 +136,7 @@
     <t>22组-陈霞（6）</t>
   </si>
   <si>
-    <t>UKK组-王娣（3）</t>
+    <t>UKK组-王娣（6）</t>
   </si>
   <si>
     <t>line01</t>
@@ -259,11 +259,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -283,11 +283,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="微软雅黑"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -299,6 +294,14 @@
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,6 +313,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -327,25 +353,18 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -357,9 +376,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -373,15 +399,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -396,36 +421,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -447,31 +442,157 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,145 +604,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,33 +658,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top style="thin">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,11 +702,28 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -752,148 +747,148 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -907,7 +902,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -1231,8 +1226,8 @@
   <sheetPr/>
   <dimension ref="A1:D71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89285714285714" defaultRowHeight="12.8" outlineLevelCol="3"/>
@@ -1241,7 +1236,7 @@
     <col min="2" max="2" width="13.9910714285714" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="28" spans="1:4">
+    <row r="1" ht="14" spans="1:4">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1255,7 +1250,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" ht="28" spans="1:4">
+    <row r="2" ht="14" spans="1:4">
       <c r="A2" s="2" t="s">
         <v>4</v>
       </c>
@@ -1267,7 +1262,7 @@
       </c>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" ht="28" spans="1:4">
+    <row r="3" ht="14" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>7</v>
       </c>
@@ -1279,7 +1274,7 @@
       </c>
       <c r="D3" s="2"/>
     </row>
-    <row r="4" ht="28" spans="1:4">
+    <row r="4" ht="14" spans="1:4">
       <c r="A4" s="2" t="s">
         <v>9</v>
       </c>
@@ -1291,7 +1286,7 @@
       </c>
       <c r="D4" s="2"/>
     </row>
-    <row r="5" ht="28" spans="1:4">
+    <row r="5" ht="14" spans="1:4">
       <c r="A5" s="2" t="s">
         <v>10</v>
       </c>
@@ -1303,7 +1298,7 @@
       </c>
       <c r="D5" s="2"/>
     </row>
-    <row r="6" ht="28" spans="1:4">
+    <row r="6" ht="14" spans="1:4">
       <c r="A6" s="2" t="s">
         <v>11</v>
       </c>
@@ -1315,7 +1310,7 @@
       </c>
       <c r="D6" s="2"/>
     </row>
-    <row r="7" ht="28" spans="1:4">
+    <row r="7" ht="14" spans="1:4">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1327,7 +1322,7 @@
       </c>
       <c r="D7" s="2"/>
     </row>
-    <row r="8" ht="28" spans="1:4">
+    <row r="8" ht="14" spans="1:4">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
@@ -1339,7 +1334,7 @@
       </c>
       <c r="D8" s="2"/>
     </row>
-    <row r="9" ht="28" spans="1:4">
+    <row r="9" ht="14" spans="1:4">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
@@ -1351,7 +1346,7 @@
       </c>
       <c r="D9" s="2"/>
     </row>
-    <row r="10" ht="28" spans="1:4">
+    <row r="10" ht="14" spans="1:4">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -1363,7 +1358,7 @@
       </c>
       <c r="D10" s="2"/>
     </row>
-    <row r="11" ht="28" spans="1:4">
+    <row r="11" ht="14" spans="1:4">
       <c r="A11" s="2" t="s">
         <v>16</v>
       </c>
@@ -1375,7 +1370,7 @@
       </c>
       <c r="D11" s="2"/>
     </row>
-    <row r="12" ht="28" spans="1:4">
+    <row r="12" ht="14" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>17</v>
       </c>
@@ -1387,7 +1382,7 @@
       </c>
       <c r="D12" s="2"/>
     </row>
-    <row r="13" ht="28" spans="1:4">
+    <row r="13" ht="14" spans="1:4">
       <c r="A13" s="2" t="s">
         <v>18</v>
       </c>
@@ -1399,7 +1394,7 @@
       </c>
       <c r="D13" s="2"/>
     </row>
-    <row r="14" ht="28" spans="1:4">
+    <row r="14" ht="14" spans="1:4">
       <c r="A14" s="2" t="s">
         <v>19</v>
       </c>
@@ -1411,7 +1406,7 @@
       </c>
       <c r="D14" s="2"/>
     </row>
-    <row r="15" ht="28" spans="1:4">
+    <row r="15" ht="14" spans="1:4">
       <c r="A15" s="2" t="s">
         <v>20</v>
       </c>
@@ -1423,7 +1418,7 @@
       </c>
       <c r="D15" s="2"/>
     </row>
-    <row r="16" ht="28" spans="1:4">
+    <row r="16" ht="14" spans="1:4">
       <c r="A16" s="2" t="s">
         <v>21</v>
       </c>
@@ -1435,7 +1430,7 @@
       </c>
       <c r="D16" s="2"/>
     </row>
-    <row r="17" ht="28" spans="1:4">
+    <row r="17" ht="14" spans="1:4">
       <c r="A17" s="2" t="s">
         <v>22</v>
       </c>
@@ -1447,7 +1442,7 @@
       </c>
       <c r="D17" s="2"/>
     </row>
-    <row r="18" ht="28" spans="1:4">
+    <row r="18" ht="14" spans="1:4">
       <c r="A18" s="2" t="s">
         <v>23</v>
       </c>
@@ -1459,7 +1454,7 @@
       </c>
       <c r="D18" s="2"/>
     </row>
-    <row r="19" ht="28" spans="1:4">
+    <row r="19" ht="14" spans="1:4">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -1471,7 +1466,7 @@
       </c>
       <c r="D19" s="2"/>
     </row>
-    <row r="20" ht="28" spans="1:4">
+    <row r="20" ht="14" spans="1:4">
       <c r="A20" s="2" t="s">
         <v>25</v>
       </c>
@@ -1483,7 +1478,7 @@
       </c>
       <c r="D20" s="2"/>
     </row>
-    <row r="21" ht="28" spans="1:4">
+    <row r="21" ht="14" spans="1:4">
       <c r="A21" s="2" t="s">
         <v>26</v>
       </c>
@@ -1495,7 +1490,7 @@
       </c>
       <c r="D21" s="2"/>
     </row>
-    <row r="22" ht="28" spans="1:4">
+    <row r="22" ht="14" spans="1:4">
       <c r="A22" s="2" t="s">
         <v>27</v>
       </c>
@@ -1507,7 +1502,7 @@
       </c>
       <c r="D22" s="2"/>
     </row>
-    <row r="23" ht="28" spans="1:4">
+    <row r="23" ht="14" spans="1:4">
       <c r="A23" s="2" t="s">
         <v>28</v>
       </c>
@@ -1519,7 +1514,7 @@
       </c>
       <c r="D23" s="2"/>
     </row>
-    <row r="24" ht="28" spans="1:4">
+    <row r="24" ht="14" spans="1:4">
       <c r="A24" s="2" t="s">
         <v>29</v>
       </c>
@@ -1531,7 +1526,7 @@
       </c>
       <c r="D24" s="2"/>
     </row>
-    <row r="25" ht="28" spans="1:4">
+    <row r="25" ht="14" spans="1:4">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -1543,7 +1538,7 @@
       </c>
       <c r="D25" s="2"/>
     </row>
-    <row r="26" ht="28" spans="1:4">
+    <row r="26" ht="14" spans="1:4">
       <c r="A26" s="2" t="s">
         <v>31</v>
       </c>
@@ -1555,7 +1550,7 @@
       </c>
       <c r="D26" s="2"/>
     </row>
-    <row r="27" ht="28" spans="1:4">
+    <row r="27" ht="14" spans="1:4">
       <c r="A27" s="2" t="s">
         <v>32</v>
       </c>
@@ -1567,7 +1562,7 @@
       </c>
       <c r="D27" s="2"/>
     </row>
-    <row r="28" ht="28" spans="1:4">
+    <row r="28" ht="14" spans="1:4">
       <c r="A28" s="2" t="s">
         <v>33</v>
       </c>
@@ -1579,7 +1574,7 @@
       </c>
       <c r="D28" s="2"/>
     </row>
-    <row r="29" ht="28" spans="1:4">
+    <row r="29" ht="14" spans="1:4">
       <c r="A29" s="2" t="s">
         <v>34</v>
       </c>
@@ -1591,7 +1586,7 @@
       </c>
       <c r="D29" s="2"/>
     </row>
-    <row r="30" ht="28" spans="1:4">
+    <row r="30" ht="14" spans="1:4">
       <c r="A30" s="2" t="s">
         <v>35</v>
       </c>
@@ -1603,7 +1598,7 @@
       </c>
       <c r="D30" s="2"/>
     </row>
-    <row r="31" ht="28" spans="1:4">
+    <row r="31" ht="14" spans="1:4">
       <c r="A31" s="2" t="s">
         <v>36</v>
       </c>
@@ -1615,7 +1610,7 @@
       </c>
       <c r="D31" s="2"/>
     </row>
-    <row r="32" ht="28" spans="1:4">
+    <row r="32" ht="14" spans="1:4">
       <c r="A32" s="2" t="s">
         <v>37</v>
       </c>
@@ -1627,7 +1622,7 @@
       </c>
       <c r="D32" s="2"/>
     </row>
-    <row r="33" ht="28" spans="1:4">
+    <row r="33" ht="14" spans="1:4">
       <c r="A33" s="2" t="s">
         <v>38</v>
       </c>
@@ -1639,7 +1634,7 @@
       </c>
       <c r="D33" s="2"/>
     </row>
-    <row r="34" ht="28" spans="1:4">
+    <row r="34" ht="14" spans="1:4">
       <c r="A34" s="2" t="s">
         <v>39</v>
       </c>
@@ -1651,7 +1646,7 @@
       </c>
       <c r="D34" s="2"/>
     </row>
-    <row r="35" ht="28" spans="1:4">
+    <row r="35" ht="14" spans="1:4">
       <c r="A35" s="2" t="s">
         <v>40</v>
       </c>
@@ -1663,7 +1658,7 @@
       </c>
       <c r="D35" s="2"/>
     </row>
-    <row r="36" ht="28" spans="1:4">
+    <row r="36" ht="14" spans="1:4">
       <c r="A36" s="2" t="s">
         <v>41</v>
       </c>
@@ -1675,7 +1670,7 @@
       </c>
       <c r="D36" s="2"/>
     </row>
-    <row r="37" ht="28" spans="1:4">
+    <row r="37" ht="14" spans="1:4">
       <c r="A37" s="2" t="s">
         <v>43</v>
       </c>
@@ -1687,7 +1682,7 @@
       </c>
       <c r="D37" s="2"/>
     </row>
-    <row r="38" ht="28" spans="1:4">
+    <row r="38" ht="14" spans="1:4">
       <c r="A38" s="2" t="s">
         <v>44</v>
       </c>
@@ -1699,7 +1694,7 @@
       </c>
       <c r="D38" s="2"/>
     </row>
-    <row r="39" ht="28" spans="1:4">
+    <row r="39" ht="14" spans="1:4">
       <c r="A39" s="2" t="s">
         <v>45</v>
       </c>
@@ -1711,7 +1706,7 @@
       </c>
       <c r="D39" s="2"/>
     </row>
-    <row r="40" ht="28" spans="1:4">
+    <row r="40" ht="14" spans="1:4">
       <c r="A40" s="2" t="s">
         <v>46</v>
       </c>
@@ -1723,7 +1718,7 @@
       </c>
       <c r="D40" s="2"/>
     </row>
-    <row r="41" ht="28" spans="1:4">
+    <row r="41" ht="14" spans="1:4">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -1735,7 +1730,7 @@
       </c>
       <c r="D41" s="2"/>
     </row>
-    <row r="42" ht="28" spans="1:4">
+    <row r="42" ht="14" spans="1:4">
       <c r="A42" s="2" t="s">
         <v>48</v>
       </c>
@@ -1747,7 +1742,7 @@
       </c>
       <c r="D42" s="2"/>
     </row>
-    <row r="43" ht="28" spans="1:4">
+    <row r="43" ht="14" spans="1:4">
       <c r="A43" s="2" t="s">
         <v>49</v>
       </c>
@@ -1759,7 +1754,7 @@
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" ht="28" spans="1:4">
+    <row r="44" ht="14" spans="1:4">
       <c r="A44" s="2" t="s">
         <v>50</v>
       </c>
@@ -1771,7 +1766,7 @@
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" ht="28" spans="1:4">
+    <row r="45" ht="14" spans="1:4">
       <c r="A45" s="2" t="s">
         <v>51</v>
       </c>
@@ -1783,7 +1778,7 @@
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" ht="28" spans="1:4">
+    <row r="46" ht="14" spans="1:4">
       <c r="A46" s="2" t="s">
         <v>52</v>
       </c>
@@ -1795,7 +1790,7 @@
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" ht="28" spans="1:4">
+    <row r="47" ht="14" spans="1:4">
       <c r="A47" s="2" t="s">
         <v>53</v>
       </c>
@@ -1807,7 +1802,7 @@
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" ht="28" spans="1:4">
+    <row r="48" ht="14" spans="1:4">
       <c r="A48" s="2" t="s">
         <v>54</v>
       </c>
@@ -1819,7 +1814,7 @@
       </c>
       <c r="D48" s="2"/>
     </row>
-    <row r="49" ht="28" spans="1:4">
+    <row r="49" ht="14" spans="1:4">
       <c r="A49" s="2" t="s">
         <v>55</v>
       </c>
@@ -1831,7 +1826,7 @@
       </c>
       <c r="D49" s="2"/>
     </row>
-    <row r="50" ht="28" spans="1:4">
+    <row r="50" ht="14" spans="1:4">
       <c r="A50" s="2" t="s">
         <v>56</v>
       </c>
@@ -1843,7 +1838,7 @@
       </c>
       <c r="D50" s="2"/>
     </row>
-    <row r="51" ht="28" spans="1:4">
+    <row r="51" ht="14" spans="1:4">
       <c r="A51" s="2" t="s">
         <v>57</v>
       </c>
@@ -1855,7 +1850,7 @@
       </c>
       <c r="D51" s="2"/>
     </row>
-    <row r="52" ht="28" spans="1:4">
+    <row r="52" ht="14" spans="1:4">
       <c r="A52" s="2" t="s">
         <v>58</v>
       </c>
@@ -1867,7 +1862,7 @@
       </c>
       <c r="D52" s="2"/>
     </row>
-    <row r="53" ht="28" spans="1:4">
+    <row r="53" ht="14" spans="1:4">
       <c r="A53" s="2" t="s">
         <v>59</v>
       </c>
@@ -1879,7 +1874,7 @@
       </c>
       <c r="D53" s="2"/>
     </row>
-    <row r="54" ht="28" spans="1:4">
+    <row r="54" ht="14" spans="1:4">
       <c r="A54" s="2" t="s">
         <v>60</v>
       </c>
@@ -1891,7 +1886,7 @@
       </c>
       <c r="D54" s="2"/>
     </row>
-    <row r="55" ht="28" spans="1:4">
+    <row r="55" ht="14" spans="1:4">
       <c r="A55" s="2" t="s">
         <v>61</v>
       </c>
@@ -1903,7 +1898,7 @@
       </c>
       <c r="D55" s="2"/>
     </row>
-    <row r="56" ht="28" spans="1:4">
+    <row r="56" ht="14" spans="1:4">
       <c r="A56" s="2" t="s">
         <v>62</v>
       </c>
@@ -1915,7 +1910,7 @@
       </c>
       <c r="D56" s="2"/>
     </row>
-    <row r="57" ht="28" spans="1:4">
+    <row r="57" ht="14" spans="1:4">
       <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
@@ -1927,7 +1922,7 @@
       </c>
       <c r="D57" s="2"/>
     </row>
-    <row r="58" ht="28" spans="1:4">
+    <row r="58" ht="14" spans="1:4">
       <c r="A58" s="2" t="s">
         <v>64</v>
       </c>
@@ -1939,7 +1934,7 @@
       </c>
       <c r="D58" s="2"/>
     </row>
-    <row r="59" ht="28" spans="1:4">
+    <row r="59" ht="14" spans="1:4">
       <c r="A59" s="2" t="s">
         <v>65</v>
       </c>
@@ -1951,7 +1946,7 @@
       </c>
       <c r="D59" s="2"/>
     </row>
-    <row r="60" ht="28" spans="1:4">
+    <row r="60" ht="14" spans="1:4">
       <c r="A60" s="2" t="s">
         <v>66</v>
       </c>
@@ -1963,7 +1958,7 @@
       </c>
       <c r="D60" s="2"/>
     </row>
-    <row r="61" ht="28" spans="1:4">
+    <row r="61" ht="14" spans="1:4">
       <c r="A61" s="2" t="s">
         <v>67</v>
       </c>
@@ -1975,7 +1970,7 @@
       </c>
       <c r="D61" s="2"/>
     </row>
-    <row r="62" ht="28" spans="1:4">
+    <row r="62" ht="14" spans="1:4">
       <c r="A62" s="2" t="s">
         <v>68</v>
       </c>
@@ -1987,7 +1982,7 @@
       </c>
       <c r="D62" s="2"/>
     </row>
-    <row r="63" ht="28" spans="1:4">
+    <row r="63" ht="14" spans="1:4">
       <c r="A63" s="2" t="s">
         <v>69</v>
       </c>
@@ -1999,7 +1994,7 @@
       </c>
       <c r="D63" s="2"/>
     </row>
-    <row r="64" ht="28" spans="1:4">
+    <row r="64" ht="14" spans="1:4">
       <c r="A64" s="2" t="s">
         <v>70</v>
       </c>
@@ -2011,7 +2006,7 @@
       </c>
       <c r="D64" s="2"/>
     </row>
-    <row r="65" ht="28" spans="1:4">
+    <row r="65" ht="14" spans="1:4">
       <c r="A65" s="2" t="s">
         <v>71</v>
       </c>

--- a/LegacySystem/src/main/resources/excel/calendar.xlsx
+++ b/LegacySystem/src/main/resources/excel/calendar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20368"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\学科\大四上\互联网+实践\code\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\大四上文件\面向互联网+实践\InternetPlusProject\LegacySystem\src\main\resources\excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4566B918-08DC-4337-B8BB-77E77491150B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F28974-FA5A-4B5A-9C31-3F52B822C570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24036" windowHeight="13116" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="948" windowWidth="23040" windowHeight="12360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="56">
   <si>
     <t>资源</t>
   </si>
@@ -43,69 +43,21 @@
     <t>晚班</t>
   </si>
   <si>
-    <t>line01</t>
-  </si>
-  <si>
     <t>全天</t>
   </si>
   <si>
-    <t>line02</t>
-  </si>
-  <si>
-    <t>line03</t>
-  </si>
-  <si>
-    <t>line04</t>
-  </si>
-  <si>
-    <t>line05</t>
-  </si>
-  <si>
     <t>line06</t>
   </si>
   <si>
     <t>line07</t>
   </si>
   <si>
-    <t>line08</t>
-  </si>
-  <si>
-    <t>line10</t>
-  </si>
-  <si>
     <t>line11</t>
   </si>
   <si>
-    <t>line12</t>
-  </si>
-  <si>
     <t>line14</t>
   </si>
   <si>
-    <t>line15</t>
-  </si>
-  <si>
-    <t>line17</t>
-  </si>
-  <si>
-    <t>line18</t>
-  </si>
-  <si>
-    <t>line19</t>
-  </si>
-  <si>
-    <t>line20</t>
-  </si>
-  <si>
-    <t>line30</t>
-  </si>
-  <si>
-    <t>line31</t>
-  </si>
-  <si>
-    <t>line32</t>
-  </si>
-  <si>
     <t>line33</t>
   </si>
   <si>
@@ -127,15 +79,9 @@
     <t>line39</t>
   </si>
   <si>
-    <t>line40</t>
-  </si>
-  <si>
     <t>line41</t>
   </si>
   <si>
-    <t>line42</t>
-  </si>
-  <si>
     <t>line43</t>
   </si>
   <si>
@@ -169,10 +115,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>8组-张</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>14组-周清</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -249,26 +191,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>3组-李翠</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>18组-芮娜</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>19组-王秀</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>21组-陈花</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>17组-吴凤</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>36组-谢霞</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -285,11 +211,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>22组-陈霞</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>UKK组-王娣</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>8组-张萍</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -658,10 +584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D71"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E35" sqref="E35"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -686,7 +612,7 @@
     </row>
     <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>4</v>
@@ -698,7 +624,7 @@
     </row>
     <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>46</v>
+        <v>28</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>4</v>
@@ -710,7 +636,7 @@
     </row>
     <row r="4" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>4</v>
@@ -722,7 +648,7 @@
     </row>
     <row r="5" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>4</v>
@@ -734,7 +660,7 @@
     </row>
     <row r="6" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>4</v>
@@ -746,7 +672,7 @@
     </row>
     <row r="7" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>4</v>
@@ -758,7 +684,7 @@
     </row>
     <row r="8" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>4</v>
@@ -770,7 +696,7 @@
     </row>
     <row r="9" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>4</v>
@@ -782,7 +708,7 @@
     </row>
     <row r="10" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>53</v>
+        <v>34</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>4</v>
@@ -794,7 +720,7 @@
     </row>
     <row r="11" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>54</v>
+        <v>35</v>
       </c>
       <c r="B11" s="2" t="s">
         <v>4</v>
@@ -806,7 +732,7 @@
     </row>
     <row r="12" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>55</v>
+        <v>36</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>4</v>
@@ -818,7 +744,7 @@
     </row>
     <row r="13" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>4</v>
@@ -830,7 +756,7 @@
     </row>
     <row r="14" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>4</v>
@@ -842,7 +768,7 @@
     </row>
     <row r="15" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>58</v>
+        <v>39</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>4</v>
@@ -854,7 +780,7 @@
     </row>
     <row r="16" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>59</v>
+        <v>40</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>4</v>
@@ -866,7 +792,7 @@
     </row>
     <row r="17" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A17" s="4" t="s">
-        <v>60</v>
+        <v>41</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>4</v>
@@ -878,7 +804,7 @@
     </row>
     <row r="18" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>4</v>
@@ -890,7 +816,7 @@
     </row>
     <row r="19" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>4</v>
@@ -902,7 +828,7 @@
     </row>
     <row r="20" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A20" s="4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>4</v>
@@ -914,7 +840,7 @@
     </row>
     <row r="21" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>64</v>
+        <v>45</v>
       </c>
       <c r="B21" s="2" t="s">
         <v>4</v>
@@ -926,7 +852,7 @@
     </row>
     <row r="22" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A22" s="4" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B22" s="2" t="s">
         <v>4</v>
@@ -938,7 +864,7 @@
     </row>
     <row r="23" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A23" s="4" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="B23" s="2" t="s">
         <v>4</v>
@@ -950,7 +876,7 @@
     </row>
     <row r="24" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
-        <v>67</v>
+        <v>48</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>4</v>
@@ -962,31 +888,31 @@
     </row>
     <row r="25" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
-        <v>68</v>
+        <v>49</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A26" s="4" t="s">
-        <v>69</v>
+        <v>50</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>4</v>
@@ -998,19 +924,19 @@
     </row>
     <row r="28" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A28" s="4" t="s">
-        <v>71</v>
+        <v>52</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
-        <v>72</v>
+        <v>53</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>4</v>
@@ -1022,7 +948,7 @@
     </row>
     <row r="30" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>73</v>
+        <v>54</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>4</v>
@@ -1033,496 +959,220 @@
       <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A31" s="4" t="s">
-        <v>74</v>
+      <c r="A31" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A32" s="4" t="s">
-        <v>75</v>
+      <c r="A32" s="2" t="s">
+        <v>9</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A33" s="4" t="s">
-        <v>76</v>
+      <c r="A33" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D33" s="2"/>
     </row>
     <row r="34" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A34" s="4" t="s">
-        <v>77</v>
+      <c r="A34" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D34" s="2"/>
     </row>
     <row r="35" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
-        <v>78</v>
+      <c r="A35" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D35" s="2"/>
     </row>
     <row r="36" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D40" s="2"/>
     </row>
     <row r="41" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D41" s="2"/>
     </row>
     <row r="42" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D42" s="2"/>
     </row>
     <row r="43" spans="1:4" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>4</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D43" s="2"/>
     </row>
-    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>16</v>
+    <row r="44" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A44" s="3" t="s">
+        <v>21</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D44" s="2"/>
     </row>
-    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>17</v>
+    <row r="45" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A45" s="3" t="s">
+        <v>23</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D45" s="2"/>
     </row>
-    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>18</v>
+    <row r="46" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A46" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D46" s="2"/>
     </row>
-    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>19</v>
+    <row r="47" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A47" s="3" t="s">
+        <v>25</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D47" s="2"/>
     </row>
-    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>20</v>
+    <row r="48" spans="1:4" ht="15" x14ac:dyDescent="0.35">
+      <c r="A48" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C48" s="2" t="s">
-        <v>8</v>
+        <v>22</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>7</v>
       </c>
       <c r="D48" s="2"/>
-    </row>
-    <row r="49" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D49" s="2"/>
-    </row>
-    <row r="50" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C50" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D50" s="2"/>
-    </row>
-    <row r="51" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D51" s="2"/>
-    </row>
-    <row r="52" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D52" s="2"/>
-    </row>
-    <row r="53" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D53" s="2"/>
-    </row>
-    <row r="54" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D54" s="2"/>
-    </row>
-    <row r="55" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="2"/>
-    </row>
-    <row r="56" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D56" s="2"/>
-    </row>
-    <row r="57" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C57" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="2"/>
-    </row>
-    <row r="58" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D58" s="2"/>
-    </row>
-    <row r="59" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D59" s="2"/>
-    </row>
-    <row r="60" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="2"/>
-    </row>
-    <row r="61" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D61" s="2"/>
-    </row>
-    <row r="62" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="2"/>
-    </row>
-    <row r="63" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D63" s="2"/>
-    </row>
-    <row r="64" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D64" s="2"/>
-    </row>
-    <row r="65" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="2"/>
-    </row>
-    <row r="66" spans="1:4" ht="15" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D66" s="2"/>
-    </row>
-    <row r="67" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A67" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="2"/>
-    </row>
-    <row r="68" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A68" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D68" s="2"/>
-    </row>
-    <row r="69" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A69" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D69" s="2"/>
-    </row>
-    <row r="70" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A70" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="2"/>
-    </row>
-    <row r="71" spans="1:4" ht="15" x14ac:dyDescent="0.35">
-      <c r="A71" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D71" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
